--- a/Experimento1.xlsx
+++ b/Experimento1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Estado</t>
   </si>
@@ -34,16 +34,130 @@
     <t>Hora</t>
   </si>
   <si>
-    <t>18.3228486131</t>
-  </si>
-  <si>
-    <t>2.40732461142</t>
+    <t>18.228230296</t>
+  </si>
+  <si>
+    <t>2.4556768653</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>29.62</t>
+    <t>29.78</t>
+  </si>
+  <si>
+    <t>11:18:54</t>
+  </si>
+  <si>
+    <t>18.2323100928</t>
+  </si>
+  <si>
+    <t>2.47458178192</t>
+  </si>
+  <si>
+    <t>29.53</t>
+  </si>
+  <si>
+    <t>18.2331755042</t>
+  </si>
+  <si>
+    <t>2.44118585239</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>18.2280654557</t>
+  </si>
+  <si>
+    <t>2.47162210256</t>
+  </si>
+  <si>
+    <t>18.2378322419</t>
+  </si>
+  <si>
+    <t>2.41407636735</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>18.2307853202</t>
+  </si>
+  <si>
+    <t>2.45224905075</t>
+  </si>
+  <si>
+    <t>30.08</t>
+  </si>
+  <si>
+    <t>11:18:55</t>
+  </si>
+  <si>
+    <t>18.2361014191</t>
+  </si>
+  <si>
+    <t>2.49597965457</t>
+  </si>
+  <si>
+    <t>29.71</t>
+  </si>
+  <si>
+    <t>18.2405933165</t>
+  </si>
+  <si>
+    <t>2.45437774476</t>
+  </si>
+  <si>
+    <t>30.16</t>
+  </si>
+  <si>
+    <t>18.2360189989</t>
+  </si>
+  <si>
+    <t>2.44996384104</t>
+  </si>
+  <si>
+    <t>29.96</t>
+  </si>
+  <si>
+    <t>18.2273236745</t>
+  </si>
+  <si>
+    <t>2.48039867934</t>
+  </si>
+  <si>
+    <t>29.87</t>
+  </si>
+  <si>
+    <t>18.2436840717</t>
+  </si>
+  <si>
+    <t>2.4433686008</t>
+  </si>
+  <si>
+    <t>29.95</t>
+  </si>
+  <si>
+    <t>11:18:56</t>
+  </si>
+  <si>
+    <t>18.2299611189</t>
+  </si>
+  <si>
+    <t>2.44378409347</t>
+  </si>
+  <si>
+    <t>30.24</t>
+  </si>
+  <si>
+    <t>18.2379558721</t>
+  </si>
+  <si>
+    <t>2.47935853579</t>
+  </si>
+  <si>
+    <t>29.65</t>
   </si>
 </sst>
 </file>
@@ -375,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,6 +528,213 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
